--- a/Dados Baixados/Linha Do Tempo/Linha Do Tempo Geral/LInhadospartos.xlsx
+++ b/Dados Baixados/Linha Do Tempo/Linha Do Tempo Geral/LInhadospartos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD818DA-D8D3-422A-9BBB-E17E1A15FCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E91DCC-5E40-4C24-9986-48DD61B977C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4ACB37FA-C30F-46B1-9904-86BA96212168}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ACB37FA-C30F-46B1-9904-86BA96212168}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>10 a 14 anos</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>55 a 59 anos</t>
-  </si>
-  <si>
-    <t>Idade ignorada</t>
-  </si>
-  <si>
-    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -107,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,6 +137,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -161,8 +168,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -216,11 +225,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR" b="1">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Linha Do Tempo Po Partos</a:t>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Linha</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Do Tempo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -258,18 +268,18 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$2</c:f>
+              <c:f>Planilha1!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>10 a 14 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -284,105 +294,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$14</c:f>
+              <c:f>Planilha1!$C$16:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21715</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32609</c:v>
+                  <c:v>869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33811</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31493</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16467</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4129</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>141350</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,7 +383,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000000-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,11 +392,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$2</c:f>
+              <c:f>Planilha1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2014</c:v>
+                  <c:v>15 a 19 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -418,105 +411,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$3:$C$14</c:f>
+              <c:f>Planilha1!$D$16:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>938</c:v>
+                  <c:v>21715</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32373</c:v>
+                  <c:v>20700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34168</c:v>
+                  <c:v>18968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32316</c:v>
+                  <c:v>17574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17396</c:v>
+                  <c:v>16158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4351</c:v>
+                  <c:v>14428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>13108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>143315</c:v>
+                  <c:v>9980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,7 +500,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000001-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -533,11 +509,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$2</c:f>
+              <c:f>Planilha1!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2015</c:v>
+                  <c:v>20 a 24 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -552,105 +528,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$3:$D$14</c:f>
+              <c:f>Planilha1!$E$16:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>869</c:v>
+                  <c:v>32609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20700</c:v>
+                  <c:v>32373</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>33910</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35113</c:v>
+                  <c:v>32101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33907</c:v>
+                  <c:v>31897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19115</c:v>
+                  <c:v>30988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4483</c:v>
+                  <c:v>29949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>255</c:v>
+                  <c:v>29268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>28051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>26472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>148359</c:v>
+                  <c:v>26473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000002-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -667,11 +626,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$E$2</c:f>
+              <c:f>Planilha1!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>25 a 29 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -686,105 +645,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$E$3:$E$14</c:f>
+              <c:f>Planilha1!$F$16:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>765</c:v>
+                  <c:v>33811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18968</c:v>
+                  <c:v>34168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32101</c:v>
+                  <c:v>35113</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32187</c:v>
+                  <c:v>33692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19125</c:v>
+                  <c:v>33121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4550</c:v>
+                  <c:v>31866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>272</c:v>
+                  <c:v>31584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>30549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>30600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>141411</c:v>
+                  <c:v>30617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +734,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000003-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -801,11 +743,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$F$2</c:f>
+              <c:f>Planilha1!$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>30 a 34 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -820,105 +762,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$F$3:$F$14</c:f>
+              <c:f>Planilha1!$G$16:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>589</c:v>
+                  <c:v>31493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17574</c:v>
+                  <c:v>32316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31897</c:v>
+                  <c:v>33907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33692</c:v>
+                  <c:v>32187</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20575</c:v>
+                  <c:v>31937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4835</c:v>
+                  <c:v>30922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>271</c:v>
+                  <c:v>29974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>28177</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>27951</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>141568</c:v>
+                  <c:v>28064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000004-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,11 +860,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$G$2</c:f>
+              <c:f>Planilha1!$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>35 a 39 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -954,105 +879,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$G$3:$G$14</c:f>
+              <c:f>Planilha1!$H$16:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>574</c:v>
+                  <c:v>16467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16158</c:v>
+                  <c:v>17396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30988</c:v>
+                  <c:v>19115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33121</c:v>
+                  <c:v>19125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31937</c:v>
+                  <c:v>20575</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21770</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5174</c:v>
+                  <c:v>21259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>20689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>19920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>19403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>140047</c:v>
+                  <c:v>19387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +968,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000005-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1069,11 +977,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$H$2</c:f>
+              <c:f>Planilha1!$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>40 a 44 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,109 +998,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$H$3:$H$14</c:f>
+              <c:f>Planilha1!$I$16:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>503</c:v>
+                  <c:v>4129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14428</c:v>
+                  <c:v>4351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29949</c:v>
+                  <c:v>4483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31866</c:v>
+                  <c:v>4550</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30922</c:v>
+                  <c:v>4835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21259</c:v>
+                  <c:v>5174</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>327</c:v>
+                  <c:v>5342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>5514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>134596</c:v>
+                  <c:v>5779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1087,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000006-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1209,11 +1096,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$I$2</c:f>
+              <c:f>Planilha1!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>45 a 49 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1230,109 +1117,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$I$3:$I$14</c:f>
+              <c:f>Planilha1!$J$16:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>476</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13108</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29268</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31584</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29974</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20689</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5342</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130742</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1206,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000007-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1349,11 +1215,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$J$2</c:f>
+              <c:f>Planilha1!$K$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2021</c:v>
+                  <c:v>50 a 54 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,109 +1236,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$J$3:$J$14</c:f>
+              <c:f>Planilha1!$K$16:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>427</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11516</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28051</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30549</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28177</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19920</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5514</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>276</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>124446</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,7 +1325,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000008-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1489,11 +1334,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$K$2</c:f>
+              <c:f>Planilha1!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2022</c:v>
+                  <c:v>55 a 59 anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1510,109 +1355,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Planilha1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$K$3:$K$14</c:f>
+              <c:f>Planilha1!$L$16:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>307</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26472</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19403</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5713</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120942</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,147 +1444,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-99F2-4871-9217-BB3C4330274E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$3:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>10 a 14 anos</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15 a 19 anos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20 a 24 anos</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25 a 29 anos</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30 a 34 anos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35 a 39 anos</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40 a 44 anos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45 a 49 anos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50 a 54 anos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55 a 59 anos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Idade ignorada</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Total:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$L$3:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30617</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28064</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19387</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5779</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-99F2-4871-9217-BB3C4330274E}"/>
+              <c16:uniqueId val="{00000009-AD0E-49D0-8069-2EF5A123C4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1772,13 +1456,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="876253296"/>
-        <c:axId val="876250896"/>
+        <c:axId val="424658640"/>
+        <c:axId val="424651440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="876253296"/>
+        <c:axId val="424658640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,22 +1489,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876250896"/>
+        <c:crossAx val="424651440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,11 +1512,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="876250896"/>
+        <c:axId val="424651440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1849,11 +1532,38 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="876253296"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424658640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1887,9 +1597,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-BR"/>
@@ -1897,14 +1607,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1981,7 +1684,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2089,6 +1792,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2099,6 +1807,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2130,6 +1843,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2487,23 +2203,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>356869</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>43021</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512276</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>24129</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197009</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>216807</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153048</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB87141-94EB-C683-7DF3-F22BDD820F40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913EEA31-B25F-7E33-447E-64A0D0DAB805}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,523 +2557,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE2000B-5169-48D2-A0F0-A05754CB359D}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+    <row r="1" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
+    <row r="2" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
         <v>2013</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C16" s="4">
+        <v>909</v>
+      </c>
+      <c r="D16" s="4">
+        <v>21715</v>
+      </c>
+      <c r="E16" s="4">
+        <v>32609</v>
+      </c>
+      <c r="F16" s="4">
+        <v>33811</v>
+      </c>
+      <c r="G16" s="4">
+        <v>31493</v>
+      </c>
+      <c r="H16" s="4">
+        <v>16467</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4129</v>
+      </c>
+      <c r="J16" s="4">
+        <v>205</v>
+      </c>
+      <c r="K16" s="4">
+        <v>8</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>2014</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C17" s="5">
+        <v>938</v>
+      </c>
+      <c r="D17" s="5">
+        <v>21510</v>
+      </c>
+      <c r="E17" s="5">
+        <v>32373</v>
+      </c>
+      <c r="F17" s="5">
+        <v>34168</v>
+      </c>
+      <c r="G17" s="5">
+        <v>32316</v>
+      </c>
+      <c r="H17" s="5">
+        <v>17396</v>
+      </c>
+      <c r="I17" s="5">
+        <v>4351</v>
+      </c>
+      <c r="J17" s="5">
+        <v>250</v>
+      </c>
+      <c r="K17" s="4">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>2015</v>
       </c>
-      <c r="E2" s="4">
+      <c r="C18" s="4">
+        <v>869</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20700</v>
+      </c>
+      <c r="E18" s="4">
+        <v>33910</v>
+      </c>
+      <c r="F18" s="4">
+        <v>35113</v>
+      </c>
+      <c r="G18" s="4">
+        <v>33907</v>
+      </c>
+      <c r="H18" s="4">
+        <v>19115</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4483</v>
+      </c>
+      <c r="J18" s="4">
+        <v>255</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>2016</v>
       </c>
-      <c r="F2" s="4">
+      <c r="C19" s="4">
+        <v>765</v>
+      </c>
+      <c r="D19" s="4">
+        <v>18968</v>
+      </c>
+      <c r="E19" s="4">
+        <v>32101</v>
+      </c>
+      <c r="F19" s="4">
+        <v>33428</v>
+      </c>
+      <c r="G19" s="4">
+        <v>32187</v>
+      </c>
+      <c r="H19" s="4">
+        <v>19125</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4550</v>
+      </c>
+      <c r="J19" s="4">
+        <v>272</v>
+      </c>
+      <c r="K19" s="4">
+        <v>14</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
         <v>2017</v>
       </c>
-      <c r="G2" s="4">
+      <c r="C20" s="4">
+        <v>589</v>
+      </c>
+      <c r="D20" s="4">
+        <v>17574</v>
+      </c>
+      <c r="E20" s="4">
+        <v>31897</v>
+      </c>
+      <c r="F20" s="4">
+        <v>33692</v>
+      </c>
+      <c r="G20" s="4">
+        <v>32124</v>
+      </c>
+      <c r="H20" s="4">
+        <v>20575</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4835</v>
+      </c>
+      <c r="J20" s="4">
+        <v>271</v>
+      </c>
+      <c r="K20" s="4">
+        <v>9</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>2018</v>
       </c>
-      <c r="H2" s="4">
+      <c r="C21" s="4">
+        <v>574</v>
+      </c>
+      <c r="D21" s="4">
+        <v>16158</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30988</v>
+      </c>
+      <c r="F21" s="4">
+        <v>33121</v>
+      </c>
+      <c r="G21" s="4">
+        <v>31937</v>
+      </c>
+      <c r="H21" s="4">
+        <v>21770</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5174</v>
+      </c>
+      <c r="J21" s="4">
+        <v>300</v>
+      </c>
+      <c r="K21" s="4">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
         <v>2019</v>
       </c>
-      <c r="I2" s="4">
+      <c r="C22" s="4">
+        <v>503</v>
+      </c>
+      <c r="D22" s="4">
+        <v>14428</v>
+      </c>
+      <c r="E22" s="4">
+        <v>29949</v>
+      </c>
+      <c r="F22" s="4">
+        <v>31866</v>
+      </c>
+      <c r="G22" s="4">
+        <v>30922</v>
+      </c>
+      <c r="H22" s="4">
+        <v>21259</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5317</v>
+      </c>
+      <c r="J22" s="4">
+        <v>327</v>
+      </c>
+      <c r="K22" s="4">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
         <v>2020</v>
       </c>
-      <c r="J2" s="4">
+      <c r="C23" s="4">
+        <v>476</v>
+      </c>
+      <c r="D23" s="4">
+        <v>13108</v>
+      </c>
+      <c r="E23" s="4">
+        <v>29268</v>
+      </c>
+      <c r="F23" s="4">
+        <v>31584</v>
+      </c>
+      <c r="G23" s="4">
+        <v>29974</v>
+      </c>
+      <c r="H23" s="4">
+        <v>20689</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5342</v>
+      </c>
+      <c r="J23" s="4">
+        <v>291</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>2021</v>
       </c>
-      <c r="K2" s="4">
+      <c r="C24" s="4">
+        <v>427</v>
+      </c>
+      <c r="D24" s="4">
+        <v>11516</v>
+      </c>
+      <c r="E24" s="4">
+        <v>28051</v>
+      </c>
+      <c r="F24" s="4">
+        <v>30549</v>
+      </c>
+      <c r="G24" s="4">
+        <v>28177</v>
+      </c>
+      <c r="H24" s="4">
+        <v>19920</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5514</v>
+      </c>
+      <c r="J24" s="4">
+        <v>276</v>
+      </c>
+      <c r="K24" s="4">
+        <v>13</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
         <v>2022</v>
       </c>
-      <c r="L2" s="4">
+      <c r="C25" s="4">
+        <v>307</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10153</v>
+      </c>
+      <c r="E25" s="4">
+        <v>26472</v>
+      </c>
+      <c r="F25" s="4">
+        <v>30600</v>
+      </c>
+      <c r="G25" s="4">
+        <v>27951</v>
+      </c>
+      <c r="H25" s="4">
+        <v>19403</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5713</v>
+      </c>
+      <c r="J25" s="4">
+        <v>320</v>
+      </c>
+      <c r="K25" s="4">
+        <v>19</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>909</v>
-      </c>
-      <c r="C3" s="6">
-        <v>938</v>
-      </c>
-      <c r="D3" s="4">
-        <v>869</v>
-      </c>
-      <c r="E3" s="4">
-        <v>765</v>
-      </c>
-      <c r="F3" s="4">
-        <v>589</v>
-      </c>
-      <c r="G3" s="4">
-        <v>574</v>
-      </c>
-      <c r="H3" s="4">
-        <v>503</v>
-      </c>
-      <c r="I3" s="4">
-        <v>476</v>
-      </c>
-      <c r="J3" s="4">
-        <v>427</v>
-      </c>
-      <c r="K3" s="4">
-        <v>307</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="C26" s="4">
         <v>314</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="D26" s="4">
+        <v>9980</v>
+      </c>
+      <c r="E26" s="4">
+        <v>26473</v>
+      </c>
+      <c r="F26" s="4">
+        <v>30617</v>
+      </c>
+      <c r="G26" s="4">
+        <v>28064</v>
+      </c>
+      <c r="H26" s="4">
+        <v>19387</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5779</v>
+      </c>
+      <c r="J26" s="4">
+        <v>338</v>
+      </c>
+      <c r="K26" s="4">
+        <v>21</v>
+      </c>
+      <c r="L26" s="4">
         <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>21715</v>
-      </c>
-      <c r="C4" s="6">
-        <v>21510</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20700</v>
-      </c>
-      <c r="E4" s="4">
-        <v>18968</v>
-      </c>
-      <c r="F4" s="4">
-        <v>17574</v>
-      </c>
-      <c r="G4" s="4">
-        <v>16158</v>
-      </c>
-      <c r="H4" s="4">
-        <v>14428</v>
-      </c>
-      <c r="I4" s="4">
-        <v>13108</v>
-      </c>
-      <c r="J4" s="4">
-        <v>11516</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10153</v>
-      </c>
-      <c r="L4" s="4">
-        <v>9980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>32609</v>
-      </c>
-      <c r="C5" s="6">
-        <v>32373</v>
-      </c>
-      <c r="D5" s="4">
-        <v>33910</v>
-      </c>
-      <c r="E5" s="4">
-        <v>32101</v>
-      </c>
-      <c r="F5" s="4">
-        <v>31897</v>
-      </c>
-      <c r="G5" s="4">
-        <v>30988</v>
-      </c>
-      <c r="H5" s="4">
-        <v>29949</v>
-      </c>
-      <c r="I5" s="4">
-        <v>29268</v>
-      </c>
-      <c r="J5" s="4">
-        <v>28051</v>
-      </c>
-      <c r="K5" s="4">
-        <v>26472</v>
-      </c>
-      <c r="L5" s="4">
-        <v>26473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>33811</v>
-      </c>
-      <c r="C6" s="6">
-        <v>34168</v>
-      </c>
-      <c r="D6" s="4">
-        <v>35113</v>
-      </c>
-      <c r="E6" s="4">
-        <v>33428</v>
-      </c>
-      <c r="F6" s="4">
-        <v>33692</v>
-      </c>
-      <c r="G6" s="4">
-        <v>33121</v>
-      </c>
-      <c r="H6" s="4">
-        <v>31866</v>
-      </c>
-      <c r="I6" s="4">
-        <v>31584</v>
-      </c>
-      <c r="J6" s="4">
-        <v>30549</v>
-      </c>
-      <c r="K6" s="4">
-        <v>30600</v>
-      </c>
-      <c r="L6" s="4">
-        <v>30617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>31493</v>
-      </c>
-      <c r="C7" s="6">
-        <v>32316</v>
-      </c>
-      <c r="D7" s="4">
-        <v>33907</v>
-      </c>
-      <c r="E7" s="4">
-        <v>32187</v>
-      </c>
-      <c r="F7" s="4">
-        <v>32124</v>
-      </c>
-      <c r="G7" s="4">
-        <v>31937</v>
-      </c>
-      <c r="H7" s="4">
-        <v>30922</v>
-      </c>
-      <c r="I7" s="4">
-        <v>29974</v>
-      </c>
-      <c r="J7" s="4">
-        <v>28177</v>
-      </c>
-      <c r="K7" s="4">
-        <v>27951</v>
-      </c>
-      <c r="L7" s="4">
-        <v>28064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>16467</v>
-      </c>
-      <c r="C8" s="6">
-        <v>17396</v>
-      </c>
-      <c r="D8" s="4">
-        <v>19115</v>
-      </c>
-      <c r="E8" s="4">
-        <v>19125</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20575</v>
-      </c>
-      <c r="G8" s="4">
-        <v>21770</v>
-      </c>
-      <c r="H8" s="4">
-        <v>21259</v>
-      </c>
-      <c r="I8" s="4">
-        <v>20689</v>
-      </c>
-      <c r="J8" s="4">
-        <v>19920</v>
-      </c>
-      <c r="K8" s="4">
-        <v>19403</v>
-      </c>
-      <c r="L8" s="4">
-        <v>19387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4129</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4351</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4483</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4550</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4835</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5174</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5317</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5342</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5514</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5713</v>
-      </c>
-      <c r="L9" s="4">
-        <v>5779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>205</v>
-      </c>
-      <c r="C10" s="6">
-        <v>250</v>
-      </c>
-      <c r="D10" s="4">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4">
-        <v>272</v>
-      </c>
-      <c r="F10" s="4">
-        <v>271</v>
-      </c>
-      <c r="G10" s="4">
-        <v>300</v>
-      </c>
-      <c r="H10" s="4">
-        <v>327</v>
-      </c>
-      <c r="I10" s="4">
-        <v>291</v>
-      </c>
-      <c r="J10" s="4">
-        <v>276</v>
-      </c>
-      <c r="K10" s="4">
-        <v>320</v>
-      </c>
-      <c r="L10" s="4">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
-        <v>13</v>
-      </c>
-      <c r="K11" s="4">
-        <v>19</v>
-      </c>
-      <c r="L11" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <v>141350</v>
-      </c>
-      <c r="C14" s="6">
-        <v>143315</v>
-      </c>
-      <c r="D14" s="4">
-        <v>148359</v>
-      </c>
-      <c r="E14" s="4">
-        <v>141411</v>
-      </c>
-      <c r="F14" s="4">
-        <v>141568</v>
-      </c>
-      <c r="G14" s="4">
-        <v>140047</v>
-      </c>
-      <c r="H14" s="4">
-        <v>134596</v>
-      </c>
-      <c r="I14" s="4">
-        <v>130742</v>
-      </c>
-      <c r="J14" s="4">
-        <v>124446</v>
-      </c>
-      <c r="K14" s="4">
-        <v>120942</v>
-      </c>
-      <c r="L14" s="4">
-        <v>120974</v>
       </c>
     </row>
   </sheetData>
